--- a/class_1103/test_excel_2/Demo.xlsx
+++ b/class_1103/test_excel_2/Demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>请输入范围在0到50万之间的正数金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,11 +129,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -436,96 +443,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.7265625" customWidth="1"/>
-    <col min="2" max="2" width="52.90625" customWidth="1"/>
-    <col min="3" max="3" width="38.08984375" customWidth="1"/>
+    <col min="2" max="2" width="64.7265625" customWidth="1"/>
+    <col min="3" max="3" width="52.90625" customWidth="1"/>
+    <col min="4" max="4" width="38.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
